--- a/artfynd/A 31697-2023.xlsx
+++ b/artfynd/A 31697-2023.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6825121</v>
+        <v>6823864</v>
       </c>
       <c r="B3" t="n">
         <v>57558</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>63-108, Sk</t>
+          <t>63-108., Sk</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -862,7 +862,7 @@
         <v>6152903.344567131</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
